--- a/TWN/SourceData/202509/average_202509.xlsx
+++ b/TWN/SourceData/202509/average_202509.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Taiwan區間測速" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Taiwan區間測速" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W223"/>
+  <dimension ref="A1:W231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -723,7 +723,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>台61 梧棲段-臺61線快速道路157.8K至151.6K(南向北)</t>
+          <t>台61線快速道路157.8K至151.6K(南向北)</t>
         </is>
       </c>
       <c r="N4" t="n">
@@ -859,7 +859,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>台61 清水段臺61線快速道路148.1K至156.4K(北向南)</t>
+          <t>台61線快速道路148.1K至156.4K(北向南)</t>
         </is>
       </c>
       <c r="N6" t="n">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>臺東縣達仁鄉臺9戊線3.94~9.92K(森永至壽卡休憩亭)-南往北</t>
+          <t>達仁鄉臺9戊線3.94~9.92K(森永至壽卡休憩亭)-南往北</t>
         </is>
       </c>
       <c r="N16" t="n">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>臺東縣達仁鄉臺9戊線3.94~9.92K(森永至壽卡休憩亭) -北往南</t>
+          <t>達仁鄉臺9戊線3.94~9.92K(森永至壽卡休憩亭)-北往南</t>
         </is>
       </c>
       <c r="N18" t="n">
@@ -2643,10 +2643,10 @@
         <v>7047</v>
       </c>
       <c r="B32" t="n">
-        <v>24.86532</v>
+        <v>24.8654553483281</v>
       </c>
       <c r="C32" t="n">
-        <v>121.7759</v>
+        <v>121.776059344025</v>
       </c>
       <c r="D32" t="n">
         <v>43</v>
@@ -2716,13 +2716,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>24.8488899326983</v>
+        <v>24.8486225110826</v>
       </c>
       <c r="C33" t="n">
-        <v>121.793730051212</v>
+        <v>121.793622406069</v>
       </c>
       <c r="D33" t="n">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="E33" t="n">
         <v>40</v>
@@ -2787,13 +2787,13 @@
         <v>7048</v>
       </c>
       <c r="B34" t="n">
-        <v>24.8488047672996</v>
+        <v>24.8490278624621</v>
       </c>
       <c r="C34" t="n">
-        <v>121.793790585128</v>
+        <v>121.793865285123</v>
       </c>
       <c r="D34" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E34" t="n">
         <v>40</v>
@@ -2858,13 +2858,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>24.8652811476942</v>
+        <v>24.8651989942053</v>
       </c>
       <c r="C35" t="n">
-        <v>121.775830402253</v>
+        <v>121.775727667119</v>
       </c>
       <c r="D35" t="n">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="E35" t="n">
         <v>40</v>
@@ -10152,7 +10152,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>台 62 線西向</t>
+          <t>台62線西向</t>
         </is>
       </c>
       <c r="K140" t="n">
@@ -10221,11 +10221,11 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>台 62 線西向</t>
+          <t>台62線西向</t>
         </is>
       </c>
       <c r="K141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L141" t="n">
         <v>20220121</v>
@@ -10288,7 +10288,7 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>台 62 線北向</t>
+          <t>台62線北向</t>
         </is>
       </c>
       <c r="K142" t="n">
@@ -10359,7 +10359,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>台 62 線北向</t>
+          <t>台62線北向</t>
         </is>
       </c>
       <c r="K143" t="n">
@@ -10571,7 +10571,7 @@
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t xml:space="preserve">臺9線19K 至23.1K(往宜蘭方向) </t>
+          <t>臺9 線 19K 至 23.1K(雙向)-往宜蘭方向</t>
         </is>
       </c>
       <c r="N146" t="n">
@@ -10719,7 +10719,7 @@
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>臺9線19K 至23.1K(往新店方向)</t>
+          <t>臺9 線 19K 至 23.1K(雙向)-往新店方向</t>
         </is>
       </c>
       <c r="N148" t="n">
@@ -10871,7 +10871,7 @@
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>臺9線26.2K 至32.2K(往宜蘭方向)</t>
+          <t>臺9線 26.2K 至 32.2K(雙向)-往宜蘭方向</t>
         </is>
       </c>
       <c r="N150" t="n">
@@ -11019,7 +11019,7 @@
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t xml:space="preserve">臺9線26.2K 至32.2K(往新店方向) </t>
+          <t>臺9線 26.2K 至 32.2K(雙向)-往新店方向</t>
         </is>
       </c>
       <c r="N152" t="n">
@@ -11171,7 +11171,7 @@
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t xml:space="preserve">臺64線快速公路東向25.2k 主線至28.2k </t>
+          <t>臺64 線快速公路 25.2k 至 28.2k( 雙向)-東向25.2k 主線至 28.2k</t>
         </is>
       </c>
       <c r="N154" t="n">
@@ -11309,7 +11309,7 @@
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>臺64線快速公路西向26.6k 至28.2k</t>
+          <t>臺64 線快速公路 25.2k 至 28.2k( 雙向)-西向26.6k 至 28.2k</t>
         </is>
       </c>
       <c r="N156" t="n">
@@ -11449,7 +11449,7 @@
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>臺64線快速公路東向25.2k 錦和路匝道至28.2k</t>
+          <t>臺64 線快速公路 25.2k 至 28.2k( 雙向)-東向25.2k 錦和路匝道至28.2k</t>
         </is>
       </c>
       <c r="N158" t="n">
@@ -13335,10 +13335,10 @@
         <v>7124</v>
       </c>
       <c r="B186" t="n">
-        <v>25.015898623785</v>
+        <v>25.0156562296907</v>
       </c>
       <c r="C186" t="n">
-        <v>121.988281827165</v>
+        <v>121.988209972126</v>
       </c>
       <c r="D186" t="n">
         <v>186</v>
@@ -13356,7 +13356,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="n">
-        <v>461.9999076</v>
+        <v>454.1579092</v>
       </c>
       <c r="J186" t="inlineStr">
         <is>
@@ -13375,7 +13375,7 @@
         </is>
       </c>
       <c r="N186" t="n">
-        <v>7700</v>
+        <v>7569.3</v>
       </c>
       <c r="O186" t="inlineStr">
         <is>
@@ -13390,11 +13390,7 @@
           <t>貢寮區</t>
         </is>
       </c>
-      <c r="R186" t="inlineStr">
-        <is>
-          <t>正確位置還沒確定202309</t>
-        </is>
-      </c>
+      <c r="R186" t="inlineStr"/>
       <c r="S186" t="inlineStr"/>
       <c r="T186" t="inlineStr"/>
       <c r="U186" t="inlineStr"/>
@@ -13410,10 +13406,10 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>24.9865352457576</v>
+        <v>24.9865049251704</v>
       </c>
       <c r="C187" t="n">
-        <v>121.969201111449</v>
+        <v>121.969096809618</v>
       </c>
       <c r="D187" t="n">
         <v>252</v>
@@ -13431,7 +13427,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="n">
-        <v>461.9999076</v>
+        <v>454.1579092</v>
       </c>
       <c r="J187" t="inlineStr">
         <is>
@@ -13450,7 +13446,7 @@
         </is>
       </c>
       <c r="N187" t="n">
-        <v>7700</v>
+        <v>7569.3</v>
       </c>
       <c r="O187" t="inlineStr">
         <is>
@@ -13465,11 +13461,7 @@
           <t>貢寮區</t>
         </is>
       </c>
-      <c r="R187" t="inlineStr">
-        <is>
-          <t>正確位置還沒確定202309</t>
-        </is>
-      </c>
+      <c r="R187" t="inlineStr"/>
       <c r="S187" t="inlineStr"/>
       <c r="T187" t="inlineStr"/>
       <c r="U187" t="inlineStr"/>
@@ -13481,13 +13473,13 @@
         <v>7125</v>
       </c>
       <c r="B188" t="n">
-        <v>24.9865352457576</v>
+        <v>24.9866123838133</v>
       </c>
       <c r="C188" t="n">
-        <v>121.969201111449</v>
+        <v>121.969605317381</v>
       </c>
       <c r="D188" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E188" t="n">
         <v>60</v>
@@ -13502,7 +13494,7 @@
         <v>0</v>
       </c>
       <c r="I188" t="n">
-        <v>461.9999076</v>
+        <v>454.1279092</v>
       </c>
       <c r="J188" t="inlineStr">
         <is>
@@ -13521,7 +13513,7 @@
         </is>
       </c>
       <c r="N188" t="n">
-        <v>7700</v>
+        <v>7568.8</v>
       </c>
       <c r="O188" t="inlineStr">
         <is>
@@ -13536,11 +13528,7 @@
           <t>貢寮區</t>
         </is>
       </c>
-      <c r="R188" t="inlineStr">
-        <is>
-          <t>正確位置還沒確定202309</t>
-        </is>
-      </c>
+      <c r="R188" t="inlineStr"/>
       <c r="S188" t="inlineStr"/>
       <c r="T188" t="inlineStr"/>
       <c r="U188" t="inlineStr"/>
@@ -13579,7 +13567,7 @@
         <v>0</v>
       </c>
       <c r="I189" t="n">
-        <v>461.9999076</v>
+        <v>454.1279092</v>
       </c>
       <c r="J189" t="inlineStr">
         <is>
@@ -13598,7 +13586,7 @@
         </is>
       </c>
       <c r="N189" t="n">
-        <v>7700</v>
+        <v>7568.8</v>
       </c>
       <c r="O189" t="inlineStr">
         <is>
@@ -13613,11 +13601,7 @@
           <t>貢寮區</t>
         </is>
       </c>
-      <c r="R189" t="inlineStr">
-        <is>
-          <t>正確位置還沒確定202309</t>
-        </is>
-      </c>
+      <c r="R189" t="inlineStr"/>
       <c r="S189" t="inlineStr"/>
       <c r="T189" t="inlineStr"/>
       <c r="U189" t="inlineStr"/>
@@ -13629,13 +13613,13 @@
         <v>7126</v>
       </c>
       <c r="B190" t="n">
-        <v>25.1208459554052</v>
+        <v>25.1208550494395</v>
       </c>
       <c r="C190" t="n">
-        <v>121.823678413589</v>
+        <v>121.823299243788</v>
       </c>
       <c r="D190" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E190" t="n">
         <v>60</v>
@@ -13650,7 +13634,7 @@
         <v>0</v>
       </c>
       <c r="I190" t="n">
-        <v>353.9999292</v>
+        <v>357.7079285</v>
       </c>
       <c r="J190" t="inlineStr">
         <is>
@@ -13669,7 +13653,7 @@
         </is>
       </c>
       <c r="N190" t="n">
-        <v>5900</v>
+        <v>5961.8</v>
       </c>
       <c r="O190" t="inlineStr">
         <is>
@@ -13684,11 +13668,7 @@
           <t>瑞芳區</t>
         </is>
       </c>
-      <c r="R190" t="inlineStr">
-        <is>
-          <t>正確位置還沒確定202304-5961.8</t>
-        </is>
-      </c>
+      <c r="R190" t="inlineStr"/>
       <c r="S190" t="inlineStr"/>
       <c r="T190" t="inlineStr"/>
       <c r="U190" t="inlineStr"/>
@@ -13704,13 +13684,13 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>25.1241587096689</v>
+        <v>25.1236696312188</v>
       </c>
       <c r="C191" t="n">
-        <v>121.874228709658</v>
+        <v>121.874959235578</v>
       </c>
       <c r="D191" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E191" t="n">
         <v>60</v>
@@ -13725,7 +13705,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="n">
-        <v>353.9999292</v>
+        <v>357.7079285</v>
       </c>
       <c r="J191" t="inlineStr">
         <is>
@@ -13744,7 +13724,7 @@
         </is>
       </c>
       <c r="N191" t="n">
-        <v>5900</v>
+        <v>5961.8</v>
       </c>
       <c r="O191" t="inlineStr">
         <is>
@@ -13759,11 +13739,7 @@
           <t>瑞芳區</t>
         </is>
       </c>
-      <c r="R191" t="inlineStr">
-        <is>
-          <t>正確位置還沒確定202304-5961.8</t>
-        </is>
-      </c>
+      <c r="R191" t="inlineStr"/>
       <c r="S191" t="inlineStr"/>
       <c r="T191" t="inlineStr"/>
       <c r="U191" t="inlineStr"/>
@@ -13775,13 +13751,13 @@
         <v>7127</v>
       </c>
       <c r="B192" t="n">
-        <v>25.1241898965513</v>
+        <v>25.1240017755121</v>
       </c>
       <c r="C192" t="n">
-        <v>121.874248411247</v>
+        <v>121.874518391946</v>
       </c>
       <c r="D192" t="n">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="E192" t="n">
         <v>60</v>
@@ -13796,7 +13772,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="n">
-        <v>353.9999292</v>
+        <v>359.4659281</v>
       </c>
       <c r="J192" t="inlineStr">
         <is>
@@ -13815,7 +13791,7 @@
         </is>
       </c>
       <c r="N192" t="n">
-        <v>5900</v>
+        <v>5991.1</v>
       </c>
       <c r="O192" t="inlineStr">
         <is>
@@ -13830,11 +13806,7 @@
           <t>瑞芳區</t>
         </is>
       </c>
-      <c r="R192" t="inlineStr">
-        <is>
-          <t>正確位置還沒確定202304-5991.1</t>
-        </is>
-      </c>
+      <c r="R192" t="inlineStr"/>
       <c r="S192" t="inlineStr"/>
       <c r="T192" t="inlineStr"/>
       <c r="U192" t="inlineStr"/>
@@ -13852,10 +13824,10 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>25.1209497624962</v>
+        <v>25.1209948686738</v>
       </c>
       <c r="C193" t="n">
-        <v>121.823684780288</v>
+        <v>121.822373932163</v>
       </c>
       <c r="D193" t="n">
         <v>272</v>
@@ -13873,7 +13845,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="n">
-        <v>353.9999292</v>
+        <v>359.4659281</v>
       </c>
       <c r="J193" t="inlineStr">
         <is>
@@ -13892,7 +13864,7 @@
         </is>
       </c>
       <c r="N193" t="n">
-        <v>5900</v>
+        <v>5991.1</v>
       </c>
       <c r="O193" t="inlineStr">
         <is>
@@ -13907,11 +13879,7 @@
           <t>瑞芳區</t>
         </is>
       </c>
-      <c r="R193" t="inlineStr">
-        <is>
-          <t>正確位置還沒確定202304-5991.1</t>
-        </is>
-      </c>
+      <c r="R193" t="inlineStr"/>
       <c r="S193" t="inlineStr"/>
       <c r="T193" t="inlineStr"/>
       <c r="U193" t="inlineStr"/>
@@ -13923,13 +13891,13 @@
         <v>7128</v>
       </c>
       <c r="B194" t="n">
-        <v>25.12359865007</v>
+        <v>25.123158614154</v>
       </c>
       <c r="C194" t="n">
-        <v>121.875093779753</v>
+        <v>121.875746248154</v>
       </c>
       <c r="D194" t="n">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E194" t="n">
         <v>60</v>
@@ -13944,7 +13912,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="n">
-        <v>257.9999484</v>
+        <v>250.9619498</v>
       </c>
       <c r="J194" t="inlineStr">
         <is>
@@ -13963,7 +13931,7 @@
         </is>
       </c>
       <c r="N194" t="n">
-        <v>4300</v>
+        <v>4182.7</v>
       </c>
       <c r="O194" t="inlineStr">
         <is>
@@ -13978,11 +13946,7 @@
           <t>瑞芳區</t>
         </is>
       </c>
-      <c r="R194" t="inlineStr">
-        <is>
-          <t>正確位置還沒確定202304-4182.7</t>
-        </is>
-      </c>
+      <c r="R194" t="inlineStr"/>
       <c r="S194" t="inlineStr"/>
       <c r="T194" t="inlineStr"/>
       <c r="U194" t="inlineStr"/>
@@ -13998,13 +13962,13 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>25.1238449195407</v>
+        <v>25.1239325822284</v>
       </c>
       <c r="C195" t="n">
-        <v>121.912783610282</v>
+        <v>121.913136659951</v>
       </c>
       <c r="D195" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="E195" t="n">
         <v>60</v>
@@ -14019,7 +13983,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="n">
-        <v>257.9999484</v>
+        <v>250.9619498</v>
       </c>
       <c r="J195" t="inlineStr">
         <is>
@@ -14038,7 +14002,7 @@
         </is>
       </c>
       <c r="N195" t="n">
-        <v>4300</v>
+        <v>4182.7</v>
       </c>
       <c r="O195" t="inlineStr">
         <is>
@@ -14053,11 +14017,7 @@
           <t>瑞芳區</t>
         </is>
       </c>
-      <c r="R195" t="inlineStr">
-        <is>
-          <t>正確位置還沒確定202304-4182.7</t>
-        </is>
-      </c>
+      <c r="R195" t="inlineStr"/>
       <c r="S195" t="inlineStr"/>
       <c r="T195" t="inlineStr"/>
       <c r="U195" t="inlineStr"/>
@@ -14071,13 +14031,13 @@
         <v>7129</v>
       </c>
       <c r="B196" t="n">
-        <v>25.1238705143286</v>
+        <v>25.1238435524834</v>
       </c>
       <c r="C196" t="n">
-        <v>121.91276804325</v>
+        <v>121.912706437398</v>
       </c>
       <c r="D196" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E196" t="n">
         <v>60</v>
@@ -14092,7 +14052,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="n">
-        <v>257.9999484</v>
+        <v>250.7039499</v>
       </c>
       <c r="J196" t="inlineStr">
         <is>
@@ -14111,7 +14071,7 @@
         </is>
       </c>
       <c r="N196" t="n">
-        <v>4300</v>
+        <v>4178.4</v>
       </c>
       <c r="O196" t="inlineStr">
         <is>
@@ -14126,11 +14086,7 @@
           <t>瑞芳區</t>
         </is>
       </c>
-      <c r="R196" t="inlineStr">
-        <is>
-          <t>正確位置還沒確定202304-4178.4</t>
-        </is>
-      </c>
+      <c r="R196" t="inlineStr"/>
       <c r="S196" t="inlineStr"/>
       <c r="T196" t="inlineStr"/>
       <c r="U196" t="inlineStr"/>
@@ -14148,10 +14104,10 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>25.1236273031277</v>
+        <v>25.1234559957412</v>
       </c>
       <c r="C197" t="n">
-        <v>121.875116550313</v>
+        <v>121.875351075614</v>
       </c>
       <c r="D197" t="n">
         <v>305</v>
@@ -14169,7 +14125,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="n">
-        <v>257.9999484</v>
+        <v>250.7039499</v>
       </c>
       <c r="J197" t="inlineStr">
         <is>
@@ -14188,7 +14144,7 @@
         </is>
       </c>
       <c r="N197" t="n">
-        <v>4300</v>
+        <v>4178.4</v>
       </c>
       <c r="O197" t="inlineStr">
         <is>
@@ -14203,11 +14159,7 @@
           <t>瑞芳區</t>
         </is>
       </c>
-      <c r="R197" t="inlineStr">
-        <is>
-          <t>正確位置還沒確定202304-4178.4</t>
-        </is>
-      </c>
+      <c r="R197" t="inlineStr"/>
       <c r="S197" t="inlineStr"/>
       <c r="T197" t="inlineStr"/>
       <c r="U197" t="inlineStr"/>
@@ -14223,13 +14175,13 @@
         <v>7130</v>
       </c>
       <c r="B198" t="n">
-        <v>24.8706773202188</v>
+        <v>24.8705227074057</v>
       </c>
       <c r="C198" t="n">
-        <v>121.375269073745</v>
+        <v>121.375008488671</v>
       </c>
       <c r="D198" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E198" t="n">
         <v>40</v>
@@ -14244,7 +14196,7 @@
         <v>0</v>
       </c>
       <c r="I198" t="n">
-        <v>252.0000252</v>
+        <v>248.1660248</v>
       </c>
       <c r="J198" t="inlineStr">
         <is>
@@ -14263,7 +14215,7 @@
         </is>
       </c>
       <c r="N198" t="n">
-        <v>2800</v>
+        <v>2757.4</v>
       </c>
       <c r="O198" t="inlineStr">
         <is>
@@ -14278,11 +14230,7 @@
           <t>三峽區</t>
         </is>
       </c>
-      <c r="R198" t="inlineStr">
-        <is>
-          <t>正確位置還沒確定202212-2757.4</t>
-        </is>
-      </c>
+      <c r="R198" t="inlineStr"/>
       <c r="S198" t="inlineStr"/>
       <c r="T198" t="inlineStr"/>
       <c r="U198" t="inlineStr"/>
@@ -14298,13 +14246,13 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>24.8549141958377</v>
+        <v>24.8545125019989</v>
       </c>
       <c r="C199" t="n">
-        <v>121.357189339802</v>
+        <v>121.357093518533</v>
       </c>
       <c r="D199" t="n">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E199" t="n">
         <v>40</v>
@@ -14319,7 +14267,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="n">
-        <v>252.0000252</v>
+        <v>248.1660248</v>
       </c>
       <c r="J199" t="inlineStr">
         <is>
@@ -14338,7 +14286,7 @@
         </is>
       </c>
       <c r="N199" t="n">
-        <v>2800</v>
+        <v>2757.4</v>
       </c>
       <c r="O199" t="inlineStr">
         <is>
@@ -14353,11 +14301,7 @@
           <t>三峽區</t>
         </is>
       </c>
-      <c r="R199" t="inlineStr">
-        <is>
-          <t>正確位置還沒確定202212-2757.4</t>
-        </is>
-      </c>
+      <c r="R199" t="inlineStr"/>
       <c r="S199" t="inlineStr"/>
       <c r="T199" t="inlineStr"/>
       <c r="U199" t="inlineStr"/>
@@ -14369,13 +14313,13 @@
         <v>7131</v>
       </c>
       <c r="B200" t="n">
-        <v>24.8549098388091</v>
+        <v>24.8549706769835</v>
       </c>
       <c r="C200" t="n">
-        <v>121.357221645057</v>
+        <v>121.357219366708</v>
       </c>
       <c r="D200" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E200" t="n">
         <v>40</v>
@@ -14390,7 +14334,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="n">
-        <v>252.0000252</v>
+        <v>247.6980248</v>
       </c>
       <c r="J200" t="inlineStr">
         <is>
@@ -14409,7 +14353,7 @@
         </is>
       </c>
       <c r="N200" t="n">
-        <v>2800</v>
+        <v>2752.2</v>
       </c>
       <c r="O200" t="inlineStr">
         <is>
@@ -14424,11 +14368,7 @@
           <t>三峽區</t>
         </is>
       </c>
-      <c r="R200" t="inlineStr">
-        <is>
-          <t>正確位置還沒確定202212-2752.2</t>
-        </is>
-      </c>
+      <c r="R200" t="inlineStr"/>
       <c r="S200" t="inlineStr"/>
       <c r="T200" t="inlineStr"/>
       <c r="U200" t="inlineStr"/>
@@ -14446,13 +14386,13 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>24.8706532875553</v>
+        <v>24.8707435522778</v>
       </c>
       <c r="C201" t="n">
-        <v>121.375288750414</v>
+        <v>121.375400545284</v>
       </c>
       <c r="D201" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E201" t="n">
         <v>40</v>
@@ -14467,7 +14407,7 @@
         <v>0</v>
       </c>
       <c r="I201" t="n">
-        <v>252.0000252</v>
+        <v>247.6980248</v>
       </c>
       <c r="J201" t="inlineStr">
         <is>
@@ -14486,7 +14426,7 @@
         </is>
       </c>
       <c r="N201" t="n">
-        <v>2800</v>
+        <v>2752.2</v>
       </c>
       <c r="O201" t="inlineStr">
         <is>
@@ -14501,11 +14441,7 @@
           <t>三峽區</t>
         </is>
       </c>
-      <c r="R201" t="inlineStr">
-        <is>
-          <t>正確位置還沒確定202212-2752.2</t>
-        </is>
-      </c>
+      <c r="R201" t="inlineStr"/>
       <c r="S201" t="inlineStr"/>
       <c r="T201" t="inlineStr"/>
       <c r="U201" t="inlineStr"/>
@@ -15399,7 +15335,7 @@
       </c>
       <c r="M214" t="inlineStr">
         <is>
-          <t>臺9 線 33.3K至37.2K(往宜蘭方向)</t>
+          <t>臺9線33.3K至37.2K(雙向)-往宜蘭方向</t>
         </is>
       </c>
       <c r="N214" t="n">
@@ -15535,7 +15471,7 @@
       </c>
       <c r="M216" t="inlineStr">
         <is>
-          <t>臺9線33.3K至37.2K(往新店方向)</t>
+          <t>臺9線33.3K至37.2K(雙向)-往新店方向</t>
         </is>
       </c>
       <c r="N216" t="n">
@@ -15631,27 +15567,57 @@
       <c r="W217" t="inlineStr"/>
     </row>
     <row r="218">
-      <c r="A218" t="inlineStr"/>
-      <c r="B218" t="inlineStr"/>
-      <c r="C218" t="inlineStr"/>
-      <c r="D218" t="inlineStr"/>
+      <c r="A218" t="n">
+        <v>7138</v>
+      </c>
+      <c r="B218" t="n">
+        <v>31.409025</v>
+      </c>
+      <c r="C218" t="n">
+        <v>120.902701</v>
+      </c>
+      <c r="D218" t="n">
+        <v>95</v>
+      </c>
       <c r="E218" t="n">
         <v>80</v>
       </c>
-      <c r="F218" t="inlineStr"/>
-      <c r="G218" t="inlineStr"/>
-      <c r="H218" t="inlineStr"/>
+      <c r="F218" t="n">
+        <v>964</v>
+      </c>
+      <c r="G218" t="n">
+        <v>1</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
       <c r="I218" t="n">
         <v>315.0000315</v>
       </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="inlineStr"/>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>蕭林西路1</t>
+        </is>
+      </c>
+      <c r="K218" t="n">
+        <v>3</v>
+      </c>
+      <c r="L218" t="n">
+        <v>202508</v>
+      </c>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>SVD蕭林西路</t>
+        </is>
+      </c>
       <c r="N218" t="n">
         <v>7000</v>
       </c>
-      <c r="O218" t="inlineStr"/>
+      <c r="O218" t="inlineStr">
+        <is>
+          <t>SVD</t>
+        </is>
+      </c>
       <c r="P218" t="n">
         <v>22.22222</v>
       </c>
@@ -15664,29 +15630,61 @@
       <c r="W218" t="inlineStr"/>
     </row>
     <row r="219">
-      <c r="A219" t="inlineStr"/>
-      <c r="B219" t="inlineStr"/>
-      <c r="C219" t="inlineStr"/>
-      <c r="D219" t="inlineStr"/>
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>7138_E</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>31.404277</v>
+      </c>
+      <c r="C219" t="n">
+        <v>120.975284</v>
+      </c>
+      <c r="D219" t="n">
+        <v>87</v>
+      </c>
       <c r="E219" t="n">
-        <v>60</v>
-      </c>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
-      <c r="H219" t="inlineStr"/>
+        <v>80</v>
+      </c>
+      <c r="F219" t="n">
+        <v>9128</v>
+      </c>
+      <c r="G219" t="n">
+        <v>1</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
       <c r="I219" t="n">
-        <v>187.1999626</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="inlineStr"/>
+        <v>315.0000315</v>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>蕭林西路2</t>
+        </is>
+      </c>
+      <c r="K219" t="n">
+        <v>3</v>
+      </c>
+      <c r="L219" t="n">
+        <v>202508</v>
+      </c>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="N219" t="n">
-        <v>3120</v>
-      </c>
-      <c r="O219" t="inlineStr"/>
+        <v>7000</v>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>SVD</t>
+        </is>
+      </c>
       <c r="P219" t="n">
-        <v>16.66667</v>
+        <v>22.22222</v>
       </c>
       <c r="Q219" t="inlineStr"/>
       <c r="R219" t="inlineStr"/>
@@ -15697,29 +15695,59 @@
       <c r="W219" t="inlineStr"/>
     </row>
     <row r="220">
-      <c r="A220" t="inlineStr"/>
-      <c r="B220" t="inlineStr"/>
-      <c r="C220" t="inlineStr"/>
-      <c r="D220" t="inlineStr"/>
+      <c r="A220" t="n">
+        <v>7139</v>
+      </c>
+      <c r="B220" t="n">
+        <v>31.363474</v>
+      </c>
+      <c r="C220" t="n">
+        <v>120.900372</v>
+      </c>
+      <c r="D220" t="n">
+        <v>92</v>
+      </c>
       <c r="E220" t="n">
-        <v>90</v>
-      </c>
-      <c r="F220" t="inlineStr"/>
-      <c r="G220" t="inlineStr"/>
-      <c r="H220" t="inlineStr"/>
+        <v>60</v>
+      </c>
+      <c r="F220" t="n">
+        <v>964</v>
+      </c>
+      <c r="G220" t="n">
+        <v>1</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
       <c r="I220" t="n">
-        <v>228.8</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="inlineStr"/>
+        <v>187.1999626</v>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>中華園路1</t>
+        </is>
+      </c>
+      <c r="K220" t="n">
+        <v>3</v>
+      </c>
+      <c r="L220" t="n">
+        <v>202508</v>
+      </c>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>SVD中華園路</t>
+        </is>
+      </c>
       <c r="N220" t="n">
-        <v>5720</v>
-      </c>
-      <c r="O220" t="inlineStr"/>
+        <v>3120</v>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>SVD</t>
+        </is>
+      </c>
       <c r="P220" t="n">
-        <v>25</v>
+        <v>16.66667</v>
       </c>
       <c r="Q220" t="inlineStr"/>
       <c r="R220" t="inlineStr"/>
@@ -15730,29 +15758,61 @@
       <c r="W220" t="inlineStr"/>
     </row>
     <row r="221">
-      <c r="A221" t="inlineStr"/>
-      <c r="B221" t="inlineStr"/>
-      <c r="C221" t="inlineStr"/>
-      <c r="D221" t="inlineStr"/>
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>7139_E</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>31.364018</v>
+      </c>
+      <c r="C221" t="n">
+        <v>120.933401</v>
+      </c>
+      <c r="D221" t="n">
+        <v>100</v>
+      </c>
       <c r="E221" t="n">
-        <v>70</v>
-      </c>
-      <c r="F221" t="inlineStr"/>
-      <c r="G221" t="inlineStr"/>
-      <c r="H221" t="inlineStr"/>
+        <v>60</v>
+      </c>
+      <c r="F221" t="n">
+        <v>9128</v>
+      </c>
+      <c r="G221" t="n">
+        <v>1</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
       <c r="I221" t="n">
-        <v>177.9428978</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="inlineStr"/>
+        <v>187.1999626</v>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>中華園路2</t>
+        </is>
+      </c>
+      <c r="K221" t="n">
+        <v>3</v>
+      </c>
+      <c r="L221" t="n">
+        <v>202508</v>
+      </c>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="N221" t="n">
-        <v>3460</v>
-      </c>
-      <c r="O221" t="inlineStr"/>
+        <v>3120</v>
+      </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>SVD</t>
+        </is>
+      </c>
       <c r="P221" t="n">
-        <v>19.44444</v>
+        <v>16.66667</v>
       </c>
       <c r="Q221" t="inlineStr"/>
       <c r="R221" t="inlineStr"/>
@@ -15763,27 +15823,57 @@
       <c r="W221" t="inlineStr"/>
     </row>
     <row r="222">
-      <c r="A222" t="inlineStr"/>
-      <c r="B222" t="inlineStr"/>
-      <c r="C222" t="inlineStr"/>
-      <c r="D222" t="inlineStr"/>
+      <c r="A222" t="n">
+        <v>7140</v>
+      </c>
+      <c r="B222" t="n">
+        <v>31.391006</v>
+      </c>
+      <c r="C222" t="n">
+        <v>120.890716</v>
+      </c>
+      <c r="D222" t="n">
+        <v>90</v>
+      </c>
       <c r="E222" t="n">
         <v>90</v>
       </c>
-      <c r="F222" t="inlineStr"/>
-      <c r="G222" t="inlineStr"/>
-      <c r="H222" t="inlineStr"/>
+      <c r="F222" t="n">
+        <v>964</v>
+      </c>
+      <c r="G222" t="n">
+        <v>1</v>
+      </c>
+      <c r="H222" t="n">
+        <v>1</v>
+      </c>
       <c r="I222" t="n">
-        <v>168.4</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="inlineStr"/>
+        <v>228.8</v>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>馬鞍山路1</t>
+        </is>
+      </c>
+      <c r="K222" t="n">
+        <v>3</v>
+      </c>
+      <c r="L222" t="n">
+        <v>202508</v>
+      </c>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>SVD馬鞍山路</t>
+        </is>
+      </c>
       <c r="N222" t="n">
-        <v>4210</v>
-      </c>
-      <c r="O222" t="inlineStr"/>
+        <v>5720</v>
+      </c>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>SVD</t>
+        </is>
+      </c>
       <c r="P222" t="n">
         <v>25</v>
       </c>
@@ -15796,29 +15886,61 @@
       <c r="W222" t="inlineStr"/>
     </row>
     <row r="223">
-      <c r="A223" t="inlineStr"/>
-      <c r="B223" t="inlineStr"/>
-      <c r="C223" t="inlineStr"/>
-      <c r="D223" t="inlineStr"/>
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>7140_E</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>31.391488</v>
+      </c>
+      <c r="C223" t="n">
+        <v>120.949394</v>
+      </c>
+      <c r="D223" t="n">
+        <v>61</v>
+      </c>
       <c r="E223" t="n">
-        <v>60</v>
-      </c>
-      <c r="F223" t="inlineStr"/>
-      <c r="G223" t="inlineStr"/>
-      <c r="H223" t="inlineStr"/>
+        <v>90</v>
+      </c>
+      <c r="F223" t="n">
+        <v>9128</v>
+      </c>
+      <c r="G223" t="n">
+        <v>1</v>
+      </c>
+      <c r="H223" t="n">
+        <v>1</v>
+      </c>
       <c r="I223" t="n">
-        <v>209.3999581</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="inlineStr"/>
+        <v>228.8</v>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>馬鞍山路1</t>
+        </is>
+      </c>
+      <c r="K223" t="n">
+        <v>3</v>
+      </c>
+      <c r="L223" t="n">
+        <v>202508</v>
+      </c>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="N223" t="n">
-        <v>3490</v>
-      </c>
-      <c r="O223" t="inlineStr"/>
+        <v>5720</v>
+      </c>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>SVD</t>
+        </is>
+      </c>
       <c r="P223" t="n">
-        <v>16.66667</v>
+        <v>25</v>
       </c>
       <c r="Q223" t="inlineStr"/>
       <c r="R223" t="inlineStr"/>
@@ -15828,6 +15950,526 @@
       <c r="V223" t="inlineStr"/>
       <c r="W223" t="inlineStr"/>
     </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>7141</v>
+      </c>
+      <c r="B224" t="n">
+        <v>31.38152</v>
+      </c>
+      <c r="C224" t="n">
+        <v>121.021986</v>
+      </c>
+      <c r="D224" t="n">
+        <v>270</v>
+      </c>
+      <c r="E224" t="n">
+        <v>70</v>
+      </c>
+      <c r="F224" t="n">
+        <v>964</v>
+      </c>
+      <c r="G224" t="n">
+        <v>1</v>
+      </c>
+      <c r="H224" t="n">
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>177.9428978</v>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>震川路1</t>
+        </is>
+      </c>
+      <c r="K224" t="n">
+        <v>3</v>
+      </c>
+      <c r="L224" t="n">
+        <v>202508</v>
+      </c>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>SVD震川路</t>
+        </is>
+      </c>
+      <c r="N224" t="n">
+        <v>3460</v>
+      </c>
+      <c r="O224" t="inlineStr">
+        <is>
+          <t>SVD</t>
+        </is>
+      </c>
+      <c r="P224" t="n">
+        <v>19.44444</v>
+      </c>
+      <c r="Q224" t="inlineStr"/>
+      <c r="R224" t="inlineStr"/>
+      <c r="S224" t="inlineStr"/>
+      <c r="T224" t="inlineStr"/>
+      <c r="U224" t="inlineStr"/>
+      <c r="V224" t="inlineStr"/>
+      <c r="W224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>7141_E</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>31.380507</v>
+      </c>
+      <c r="C225" t="n">
+        <v>120.983792</v>
+      </c>
+      <c r="D225" t="n">
+        <v>267</v>
+      </c>
+      <c r="E225" t="n">
+        <v>70</v>
+      </c>
+      <c r="F225" t="n">
+        <v>9128</v>
+      </c>
+      <c r="G225" t="n">
+        <v>1</v>
+      </c>
+      <c r="H225" t="n">
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>177.9428978</v>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>震川路2</t>
+        </is>
+      </c>
+      <c r="K225" t="n">
+        <v>3</v>
+      </c>
+      <c r="L225" t="n">
+        <v>202508</v>
+      </c>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N225" t="n">
+        <v>3460</v>
+      </c>
+      <c r="O225" t="inlineStr">
+        <is>
+          <t>SVD</t>
+        </is>
+      </c>
+      <c r="P225" t="n">
+        <v>19.44444</v>
+      </c>
+      <c r="Q225" t="inlineStr"/>
+      <c r="R225" t="inlineStr"/>
+      <c r="S225" t="inlineStr"/>
+      <c r="T225" t="inlineStr"/>
+      <c r="U225" t="inlineStr"/>
+      <c r="V225" t="inlineStr"/>
+      <c r="W225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>7142</v>
+      </c>
+      <c r="B226" t="n">
+        <v>31.375158</v>
+      </c>
+      <c r="C226" t="n">
+        <v>120.93657</v>
+      </c>
+      <c r="D226" t="n">
+        <v>87</v>
+      </c>
+      <c r="E226" t="n">
+        <v>90</v>
+      </c>
+      <c r="F226" t="n">
+        <v>964</v>
+      </c>
+      <c r="G226" t="n">
+        <v>1</v>
+      </c>
+      <c r="H226" t="n">
+        <v>2</v>
+      </c>
+      <c r="I226" t="n">
+        <v>168.4</v>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>朝陽路1</t>
+        </is>
+      </c>
+      <c r="K226" t="n">
+        <v>3</v>
+      </c>
+      <c r="L226" t="n">
+        <v>202508</v>
+      </c>
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>SVD朝陽路</t>
+        </is>
+      </c>
+      <c r="N226" t="n">
+        <v>4210</v>
+      </c>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>SVD</t>
+        </is>
+      </c>
+      <c r="P226" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q226" t="inlineStr"/>
+      <c r="R226" t="inlineStr"/>
+      <c r="S226" t="inlineStr"/>
+      <c r="T226" t="inlineStr"/>
+      <c r="U226" t="inlineStr"/>
+      <c r="V226" t="inlineStr"/>
+      <c r="W226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>7142_E</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>31.367641</v>
+      </c>
+      <c r="C227" t="n">
+        <v>120.978527</v>
+      </c>
+      <c r="D227" t="n">
+        <v>113</v>
+      </c>
+      <c r="E227" t="n">
+        <v>90</v>
+      </c>
+      <c r="F227" t="n">
+        <v>9128</v>
+      </c>
+      <c r="G227" t="n">
+        <v>1</v>
+      </c>
+      <c r="H227" t="n">
+        <v>2</v>
+      </c>
+      <c r="I227" t="n">
+        <v>168.4</v>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>朝陽路2</t>
+        </is>
+      </c>
+      <c r="K227" t="n">
+        <v>3</v>
+      </c>
+      <c r="L227" t="n">
+        <v>202508</v>
+      </c>
+      <c r="M227" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N227" t="n">
+        <v>4210</v>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>SVD</t>
+        </is>
+      </c>
+      <c r="P227" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q227" t="inlineStr"/>
+      <c r="R227" t="inlineStr"/>
+      <c r="S227" t="inlineStr"/>
+      <c r="T227" t="inlineStr"/>
+      <c r="U227" t="inlineStr"/>
+      <c r="V227" t="inlineStr"/>
+      <c r="W227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>7143</v>
+      </c>
+      <c r="B228" t="n">
+        <v>31.389876</v>
+      </c>
+      <c r="C228" t="n">
+        <v>121.024416</v>
+      </c>
+      <c r="D228" t="n">
+        <v>270</v>
+      </c>
+      <c r="E228" t="n">
+        <v>60</v>
+      </c>
+      <c r="F228" t="n">
+        <v>964</v>
+      </c>
+      <c r="G228" t="n">
+        <v>1</v>
+      </c>
+      <c r="H228" t="n">
+        <v>2</v>
+      </c>
+      <c r="I228" t="n">
+        <v>209.3999581</v>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>同丰路1</t>
+        </is>
+      </c>
+      <c r="K228" t="n">
+        <v>3</v>
+      </c>
+      <c r="L228" t="n">
+        <v>202508</v>
+      </c>
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>SVD同丰路</t>
+        </is>
+      </c>
+      <c r="N228" t="n">
+        <v>3490</v>
+      </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>SVD</t>
+        </is>
+      </c>
+      <c r="P228" t="n">
+        <v>16.66667</v>
+      </c>
+      <c r="Q228" t="inlineStr"/>
+      <c r="R228" t="inlineStr"/>
+      <c r="S228" t="inlineStr"/>
+      <c r="T228" t="inlineStr"/>
+      <c r="U228" t="inlineStr"/>
+      <c r="V228" t="inlineStr"/>
+      <c r="W228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>7143_E</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>31.38933</v>
+      </c>
+      <c r="C229" t="n">
+        <v>120.987678</v>
+      </c>
+      <c r="D229" t="n">
+        <v>267</v>
+      </c>
+      <c r="E229" t="n">
+        <v>60</v>
+      </c>
+      <c r="F229" t="n">
+        <v>9128</v>
+      </c>
+      <c r="G229" t="n">
+        <v>1</v>
+      </c>
+      <c r="H229" t="n">
+        <v>2</v>
+      </c>
+      <c r="I229" t="n">
+        <v>209.3999581</v>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>同丰路2</t>
+        </is>
+      </c>
+      <c r="K229" t="n">
+        <v>3</v>
+      </c>
+      <c r="L229" t="n">
+        <v>202508</v>
+      </c>
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N229" t="n">
+        <v>3490</v>
+      </c>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>SVD</t>
+        </is>
+      </c>
+      <c r="P229" t="n">
+        <v>16.66667</v>
+      </c>
+      <c r="Q229" t="inlineStr"/>
+      <c r="R229" t="inlineStr"/>
+      <c r="S229" t="inlineStr"/>
+      <c r="T229" t="inlineStr"/>
+      <c r="U229" t="inlineStr"/>
+      <c r="V229" t="inlineStr"/>
+      <c r="W229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>7144</v>
+      </c>
+      <c r="B230" t="n">
+        <v>25.1290137346441</v>
+      </c>
+      <c r="C230" t="n">
+        <v>121.696974634267</v>
+      </c>
+      <c r="D230" t="n">
+        <v>356</v>
+      </c>
+      <c r="E230" t="n">
+        <v>70</v>
+      </c>
+      <c r="F230" t="n">
+        <v>964</v>
+      </c>
+      <c r="G230" t="n">
+        <v>1</v>
+      </c>
+      <c r="H230" t="n">
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>66.85715814</v>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>台62線西向</t>
+        </is>
+      </c>
+      <c r="K230" t="n">
+        <v>2</v>
+      </c>
+      <c r="L230" t="n">
+        <v>20250911</v>
+      </c>
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>台62線快速道路1.7K至0.7K(瑪陵隧道東往西)</t>
+        </is>
+      </c>
+      <c r="N230" t="n">
+        <v>1300</v>
+      </c>
+      <c r="O230" t="inlineStr">
+        <is>
+          <t>基隆市</t>
+        </is>
+      </c>
+      <c r="P230" t="n">
+        <v>19.44444</v>
+      </c>
+      <c r="Q230" t="inlineStr"/>
+      <c r="R230" t="inlineStr">
+        <is>
+          <t>隧道內標頭尾</t>
+        </is>
+      </c>
+      <c r="S230" t="inlineStr"/>
+      <c r="T230" t="inlineStr"/>
+      <c r="U230" t="inlineStr"/>
+      <c r="V230" t="inlineStr"/>
+      <c r="W230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>7144_E</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>25.1390072642488</v>
+      </c>
+      <c r="C231" t="n">
+        <v>121.702964073845</v>
+      </c>
+      <c r="D231" t="n">
+        <v>24</v>
+      </c>
+      <c r="E231" t="n">
+        <v>70</v>
+      </c>
+      <c r="F231" t="n">
+        <v>9128</v>
+      </c>
+      <c r="G231" t="n">
+        <v>1</v>
+      </c>
+      <c r="H231" t="n">
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>66.85715814</v>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>台62線西向</t>
+        </is>
+      </c>
+      <c r="K231" t="n">
+        <v>2</v>
+      </c>
+      <c r="L231" t="n">
+        <v>20250911</v>
+      </c>
+      <c r="M231" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N231" t="n">
+        <v>1300</v>
+      </c>
+      <c r="O231" t="inlineStr">
+        <is>
+          <t>基隆市</t>
+        </is>
+      </c>
+      <c r="P231" t="n">
+        <v>19.44444</v>
+      </c>
+      <c r="Q231" t="inlineStr"/>
+      <c r="R231" t="inlineStr">
+        <is>
+          <t>隧道內標頭尾</t>
+        </is>
+      </c>
+      <c r="S231" t="inlineStr"/>
+      <c r="T231" t="inlineStr"/>
+      <c r="U231" t="inlineStr"/>
+      <c r="V231" t="inlineStr"/>
+      <c r="W231" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
